--- a/DATA/data_dict.xlsx
+++ b/DATA/data_dict.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="businessDriver" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="255">
   <si>
     <t>nameR</t>
   </si>
@@ -722,16 +722,95 @@
   </si>
   <si>
     <t>Bank of Korea and Bank calculations.</t>
+  </si>
+  <si>
+    <t>nameShow</t>
+  </si>
+  <si>
+    <t>UK RRE price index</t>
+  </si>
+  <si>
+    <t>UK CRE index - aggregate</t>
+  </si>
+  <si>
+    <t>UK CRE index - prime</t>
+  </si>
+  <si>
+    <t>UK CRE index - secondary</t>
+  </si>
+  <si>
+    <t>GBP IG corporate bond spread</t>
+  </si>
+  <si>
+    <t>GBP HY corporate bond spread</t>
+  </si>
+  <si>
+    <t>Secured lending to UK individ</t>
+  </si>
+  <si>
+    <t>Consumer credit to UK individ</t>
+  </si>
+  <si>
+    <t>Euro area CPI growth</t>
+  </si>
+  <si>
+    <t>Euro area RRE price index</t>
+  </si>
+  <si>
+    <t>Euro area CRE price index</t>
+  </si>
+  <si>
+    <t>US RRE price index</t>
+  </si>
+  <si>
+    <t>US CRE index</t>
+  </si>
+  <si>
+    <t>USD IG corporate bond spread</t>
+  </si>
+  <si>
+    <t>USD HY corporate bond spread</t>
+  </si>
+  <si>
+    <t>China RRE price index</t>
+  </si>
+  <si>
+    <t>HK real GDP</t>
+  </si>
+  <si>
+    <t>HK unemployment rate</t>
+  </si>
+  <si>
+    <t>Hong Kong RRE price index</t>
+  </si>
+  <si>
+    <t>Hong Kong CRE index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -754,13 +833,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1090,15 +1173,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1123,8 +1206,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1149,8 +1235,12 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="str">
+        <f>A2</f>
+        <v>BUS_IND_NII</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1175,8 +1265,12 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I10" si="0">A3</f>
+        <v>BUS_IND_FEE_InvBank</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1201,8 +1295,12 @@
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>BUS_IND_FEE_LoanAdvance</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1227,8 +1325,12 @@
       <c r="H5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>BUS_IND_TRADE_FX</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1253,8 +1355,12 @@
       <c r="H6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>BUS_IND_TRADE_Security</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1279,8 +1385,12 @@
       <c r="H7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>BUS_IND_TRADE_Derivative</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1305,8 +1415,12 @@
       <c r="H8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>BUS_IND_EXPENSE_Salary</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1328,8 +1442,12 @@
       <c r="H9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>BUS_IND_NII_VOL</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1351,8 +1469,12 @@
       <c r="H10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>BUS_IND_NII_NIM</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1369,7 +1491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1386,7 +1508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1403,7 +1525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1420,7 +1542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1437,7 +1559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1466,15 +1588,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1499,8 +1621,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1525,8 +1650,11 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1551,8 +1679,11 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1577,8 +1708,11 @@
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1603,8 +1737,11 @@
       <c r="H5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -1629,8 +1766,11 @@
       <c r="H6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1655,8 +1795,11 @@
       <c r="H7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -1681,8 +1824,11 @@
       <c r="H8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -1707,8 +1853,11 @@
       <c r="H9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1733,8 +1882,11 @@
       <c r="H10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1759,8 +1911,11 @@
       <c r="H11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -1785,8 +1940,11 @@
       <c r="H12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -1811,8 +1969,11 @@
       <c r="H13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -1837,8 +1998,11 @@
       <c r="H14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -1863,8 +2027,11 @@
       <c r="H15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -1889,8 +2056,11 @@
       <c r="H16" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -1915,8 +2085,11 @@
       <c r="H17" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -1941,8 +2114,11 @@
       <c r="H18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -1967,8 +2143,11 @@
       <c r="H19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -1993,8 +2172,11 @@
       <c r="H20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -2019,8 +2201,11 @@
       <c r="H21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -2045,8 +2230,11 @@
       <c r="H22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -2071,8 +2259,11 @@
       <c r="H23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -2097,8 +2288,11 @@
       <c r="H24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -2123,8 +2317,11 @@
       <c r="H25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>144</v>
       </c>
@@ -2149,8 +2346,11 @@
       <c r="H26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>147</v>
       </c>
@@ -2175,8 +2375,11 @@
       <c r="H27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>150</v>
       </c>
@@ -2201,8 +2404,11 @@
       <c r="H28" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -2227,8 +2433,11 @@
       <c r="H29" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>156</v>
       </c>
@@ -2253,8 +2462,11 @@
       <c r="H30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>159</v>
       </c>
@@ -2279,8 +2491,11 @@
       <c r="H31" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -2305,8 +2520,11 @@
       <c r="H32" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>167</v>
       </c>
@@ -2331,8 +2549,11 @@
       <c r="H33" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>170</v>
       </c>
@@ -2357,8 +2578,11 @@
       <c r="H34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>173</v>
       </c>
@@ -2383,8 +2607,11 @@
       <c r="H35" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>176</v>
       </c>
@@ -2409,8 +2636,11 @@
       <c r="H36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -2435,8 +2665,11 @@
       <c r="H37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>182</v>
       </c>
@@ -2461,8 +2694,11 @@
       <c r="H38" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>186</v>
       </c>
@@ -2487,8 +2723,11 @@
       <c r="H39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>189</v>
       </c>
@@ -2513,8 +2752,11 @@
       <c r="H40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>192</v>
       </c>
@@ -2539,8 +2781,11 @@
       <c r="H41" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>196</v>
       </c>
@@ -2565,8 +2810,11 @@
       <c r="H42" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>199</v>
       </c>
@@ -2591,8 +2839,11 @@
       <c r="H43" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>203</v>
       </c>
@@ -2617,8 +2868,11 @@
       <c r="H44" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>206</v>
       </c>
@@ -2643,8 +2897,11 @@
       <c r="H45" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>210</v>
       </c>
@@ -2669,8 +2926,11 @@
       <c r="H46" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>214</v>
       </c>
@@ -2695,8 +2955,11 @@
       <c r="H47" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>218</v>
       </c>
@@ -2721,8 +2984,11 @@
       <c r="H48" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>221</v>
       </c>
@@ -2747,8 +3013,11 @@
       <c r="H49" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>224</v>
       </c>
@@ -2773,8 +3042,11 @@
       <c r="H50" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>227</v>
       </c>
@@ -2799,8 +3071,11 @@
       <c r="H51" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>230</v>
       </c>
@@ -2825,9 +3100,13 @@
       <c r="H52" t="s">
         <v>14</v>
       </c>
+      <c r="I52" t="s">
+        <v>231</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
